--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-terminos_por_rol-2019-3.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-terminos_por_rol-2019-3.xlsx
@@ -694,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
